--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1709819.23678499</v>
+        <v>1706786.326006762</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -914,7 +914,7 @@
         <v>6.056421089299432</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="C7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="D7" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>6.876045741711437</v>
@@ -1181,19 +1181,19 @@
         <v>14.14993519808115</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>14.14993519808115</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>12.46326292246987</v>
       </c>
       <c r="E9" t="n">
-        <v>12.46326292246987</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>14.14993519808115</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>12.46326292246987</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>14.14993519808115</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>14.14993519808115</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>303.8533194332445</v>
+        <v>410.3291331476902</v>
       </c>
       <c r="H11" t="n">
         <v>288.5388763876725</v>
       </c>
       <c r="I11" t="n">
-        <v>18.73100719448783</v>
+        <v>18.73100719448809</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.68406006309553</v>
+        <v>95.68406006309567</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.3238964456415</v>
       </c>
       <c r="U11" t="n">
         <v>250.9477645584409</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>47.1998767616189</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.682404222648</v>
       </c>
       <c r="H12" t="n">
-        <v>86.53469557369453</v>
+        <v>86.53469557369456</v>
       </c>
       <c r="I12" t="n">
-        <v>7.900728318349152</v>
+        <v>7.900728318349266</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.2541653876861</v>
+        <v>122.2541653876862</v>
       </c>
       <c r="T12" t="n">
-        <v>189.4385760966767</v>
+        <v>189.4385760966768</v>
       </c>
       <c r="U12" t="n">
         <v>225.766308861201</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>95.16392254034285</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>88.35859037287277</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>76.98007184694258</v>
+        <v>5.218736889168554</v>
       </c>
       <c r="S13" t="n">
         <v>185.1365669938172</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833917</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503536</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>54.36974327483788</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>108.4661279393231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.4423155261875</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081967</v>
+        <v>84.61259060081959</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>200.6173698503575</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.9572116222425</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>124.6324187378949</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>356.5845196044219</v>
       </c>
       <c r="G20" t="n">
         <v>409.8432760127576</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.9464125187605</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2296,10 +2296,10 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>229.8169287160282</v>
+        <v>124.632418737896</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>66.85274231757778</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833829</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>110.0177171766852</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.5414768533576</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>80.33989744908999</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>140.7058473537589</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>46.86766651429496</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.1685137621099</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>4.019807611471862</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>125.2851635392051</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>27.0291980517604</v>
+        <v>127.1562738804007</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144411</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>36.39209596079101</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>16.09765778288646</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>147.919425578395</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>3.814130455269719</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,16 +4189,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="C5" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="E5" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="F5" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="C5" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>13.6131814684388</v>
       </c>
-      <c r="G5" t="n">
-        <v>6.667680719235332</v>
-      </c>
       <c r="H5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="K5" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="L5" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="M5" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="N5" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O5" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
@@ -4589,28 +4589,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E6" t="n">
         <v>0.5500836593369149</v>
@@ -4668,28 +4668,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T6" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U6" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V6" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W6" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X6" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5500836593369149</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C7" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I7" t="n">
         <v>7.495584408540386</v>
@@ -4729,16 +4729,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N7" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
@@ -4805,22 +4805,22 @@
         <v>1.131994815846492</v>
       </c>
       <c r="K8" t="n">
-        <v>1.131994815846492</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="L8" t="n">
         <v>15.14043066194683</v>
       </c>
       <c r="M8" t="n">
+        <v>15.14043066194683</v>
+      </c>
+      <c r="N8" t="n">
         <v>29.14886650804717</v>
       </c>
-      <c r="N8" t="n">
-        <v>43.15730235414752</v>
-      </c>
       <c r="O8" t="n">
-        <v>43.15730235414752</v>
+        <v>29.14886650804717</v>
       </c>
       <c r="P8" t="n">
-        <v>56.59974079232461</v>
+        <v>42.59130494622427</v>
       </c>
       <c r="Q8" t="n">
         <v>56.59974079232461</v>
@@ -4829,16 +4829,16 @@
         <v>42.306876955879</v>
       </c>
       <c r="S8" t="n">
-        <v>28.01401311943339</v>
+        <v>42.306876955879</v>
       </c>
       <c r="T8" t="n">
-        <v>28.01401311943339</v>
+        <v>42.306876955879</v>
       </c>
       <c r="U8" t="n">
-        <v>28.01401311943339</v>
+        <v>42.306876955879</v>
       </c>
       <c r="V8" t="n">
-        <v>28.01401311943339</v>
+        <v>42.306876955879</v>
       </c>
       <c r="W8" t="n">
         <v>28.01401311943339</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.01401311943339</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="C9" t="n">
-        <v>28.01401311943339</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="D9" t="n">
-        <v>28.01401311943339</v>
+        <v>44.01058632518333</v>
       </c>
       <c r="E9" t="n">
+        <v>29.71772248873771</v>
+      </c>
+      <c r="F9" t="n">
+        <v>29.71772248873771</v>
+      </c>
+      <c r="G9" t="n">
+        <v>29.71772248873771</v>
+      </c>
+      <c r="H9" t="n">
         <v>15.4248586522921</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15.4248586522921</v>
-      </c>
-      <c r="G9" t="n">
-        <v>15.4248586522921</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.131994815846492</v>
       </c>
       <c r="I9" t="n">
         <v>1.131994815846492</v>
@@ -4923,10 +4923,10 @@
         <v>56.59974079232461</v>
       </c>
       <c r="X9" t="n">
-        <v>42.306876955879</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="Y9" t="n">
-        <v>28.01401311943339</v>
+        <v>56.59974079232461</v>
       </c>
     </row>
     <row r="10">
@@ -4939,37 +4939,37 @@
         <v>42.306876955879</v>
       </c>
       <c r="C10" t="n">
+        <v>42.306876955879</v>
+      </c>
+      <c r="D10" t="n">
+        <v>42.306876955879</v>
+      </c>
+      <c r="E10" t="n">
         <v>29.71772248873771</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>15.4248586522921</v>
       </c>
-      <c r="E10" t="n">
-        <v>1.131994815846492</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.131994815846492</v>
-      </c>
       <c r="G10" t="n">
-        <v>1.131994815846492</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="H10" t="n">
-        <v>1.131994815846492</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="I10" t="n">
-        <v>1.131994815846492</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="J10" t="n">
         <v>1.131994815846492</v>
       </c>
       <c r="K10" t="n">
-        <v>1.131994815846492</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="L10" t="n">
-        <v>1.131994815846492</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="M10" t="n">
-        <v>14.57443325402359</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="N10" t="n">
         <v>28.58286910012393</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1863.996154665561</v>
+        <v>1944.024927658356</v>
       </c>
       <c r="C11" t="n">
-        <v>1495.033637725149</v>
+        <v>1575.062410717944</v>
       </c>
       <c r="D11" t="n">
-        <v>1495.033637725149</v>
+        <v>1216.796712111194</v>
       </c>
       <c r="E11" t="n">
-        <v>1109.245385126905</v>
+        <v>1216.796712111194</v>
       </c>
       <c r="F11" t="n">
-        <v>698.2594803372976</v>
+        <v>805.8108073215864</v>
       </c>
       <c r="G11" t="n">
-        <v>391.3369354552325</v>
+        <v>391.3369354552326</v>
       </c>
       <c r="H11" t="n">
-        <v>99.88352496263407</v>
+        <v>99.8835249626342</v>
       </c>
       <c r="I11" t="n">
-        <v>80.9633156752726</v>
+        <v>80.96331567527247</v>
       </c>
       <c r="J11" t="n">
-        <v>319.6350393384624</v>
+        <v>319.6350393384619</v>
       </c>
       <c r="K11" t="n">
-        <v>728.0806020937424</v>
+        <v>728.0806020937412</v>
       </c>
       <c r="L11" t="n">
-        <v>1271.695201776854</v>
+        <v>1271.695201776853</v>
       </c>
       <c r="M11" t="n">
-        <v>1908.240624688106</v>
+        <v>1908.240624688103</v>
       </c>
       <c r="N11" t="n">
-        <v>2559.699826408645</v>
+        <v>2559.699826408641</v>
       </c>
       <c r="O11" t="n">
-        <v>3161.519016137846</v>
+        <v>3161.519016137842</v>
       </c>
       <c r="P11" t="n">
-        <v>3640.65677013372</v>
+        <v>3640.656770133714</v>
       </c>
       <c r="Q11" t="n">
-        <v>3952.296522606577</v>
+        <v>3952.296522606571</v>
       </c>
       <c r="R11" t="n">
-        <v>4048.165783763629</v>
+        <v>4048.165783763623</v>
       </c>
       <c r="S11" t="n">
-        <v>3951.515218043331</v>
+        <v>3951.515218043324</v>
       </c>
       <c r="T11" t="n">
-        <v>3951.515218043331</v>
+        <v>3748.157746886111</v>
       </c>
       <c r="U11" t="n">
-        <v>3698.032627580259</v>
+        <v>3494.675156423039</v>
       </c>
       <c r="V11" t="n">
-        <v>3366.969740236688</v>
+        <v>3446.998513229485</v>
       </c>
       <c r="W11" t="n">
-        <v>3014.201084966574</v>
+        <v>3094.229857959369</v>
       </c>
       <c r="X11" t="n">
-        <v>2640.735326705494</v>
+        <v>2720.76409969829</v>
       </c>
       <c r="Y11" t="n">
-        <v>2250.595994729682</v>
+        <v>2330.624767722478</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.352632737943</v>
       </c>
       <c r="H12" t="n">
-        <v>88.94384933017074</v>
+        <v>88.94384933017072</v>
       </c>
       <c r="I12" t="n">
-        <v>80.9633156752726</v>
+        <v>80.96331567527247</v>
       </c>
       <c r="J12" t="n">
-        <v>80.9633156752726</v>
+        <v>204.2967122670806</v>
       </c>
       <c r="K12" t="n">
-        <v>184.7502514580912</v>
+        <v>493.2479560217902</v>
       </c>
       <c r="L12" t="n">
-        <v>619.6033986397258</v>
+        <v>928.1011032034239</v>
       </c>
       <c r="M12" t="n">
-        <v>1146.413378875078</v>
+        <v>948.7034899925552</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.575096630987</v>
+        <v>1503.865207748463</v>
       </c>
       <c r="O12" t="n">
-        <v>2187.21981353376</v>
+        <v>1989.509924651235</v>
       </c>
       <c r="P12" t="n">
-        <v>2557.659447799504</v>
+        <v>2359.949558916979</v>
       </c>
       <c r="Q12" t="n">
         <v>2557.659447799504</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>435.2757742730937</v>
+        <v>546.9060855134254</v>
       </c>
       <c r="C13" t="n">
-        <v>266.3395913451868</v>
+        <v>377.9699025855185</v>
       </c>
       <c r="D13" t="n">
-        <v>266.3395913451868</v>
+        <v>227.8532631731828</v>
       </c>
       <c r="E13" t="n">
-        <v>266.3395913451868</v>
+        <v>227.8532631731828</v>
       </c>
       <c r="F13" t="n">
-        <v>266.3395913451869</v>
+        <v>80.96331567527247</v>
       </c>
       <c r="G13" t="n">
-        <v>266.3395913451869</v>
+        <v>80.96331567527247</v>
       </c>
       <c r="H13" t="n">
-        <v>170.2144170620128</v>
+        <v>80.96331567527247</v>
       </c>
       <c r="I13" t="n">
-        <v>80.9633156752726</v>
+        <v>80.96331567527247</v>
       </c>
       <c r="J13" t="n">
-        <v>144.6912492212118</v>
+        <v>144.6912492212114</v>
       </c>
       <c r="K13" t="n">
-        <v>379.2526571984115</v>
+        <v>379.2526571984104</v>
       </c>
       <c r="L13" t="n">
-        <v>734.9369373459058</v>
+        <v>734.9369373459042</v>
       </c>
       <c r="M13" t="n">
-        <v>1120.345263239928</v>
+        <v>1120.345263239927</v>
       </c>
       <c r="N13" t="n">
-        <v>1502.024056996009</v>
+        <v>1502.024056996007</v>
       </c>
       <c r="O13" t="n">
-        <v>1838.549904018173</v>
+        <v>1838.54990401817</v>
       </c>
       <c r="P13" t="n">
-        <v>2102.985220553304</v>
+        <v>2102.985220553301</v>
       </c>
       <c r="Q13" t="n">
-        <v>2202.631446810348</v>
+        <v>2202.631446810345</v>
       </c>
       <c r="R13" t="n">
-        <v>2124.873798480103</v>
+        <v>2197.359995407145</v>
       </c>
       <c r="S13" t="n">
-        <v>1937.867165153015</v>
+        <v>2010.353362080057</v>
       </c>
       <c r="T13" t="n">
-        <v>1717.247783889291</v>
+        <v>1789.733980816333</v>
       </c>
       <c r="U13" t="n">
-        <v>1428.159562557489</v>
+        <v>1500.645759484531</v>
       </c>
       <c r="V13" t="n">
-        <v>1173.475074351602</v>
+        <v>1245.961271278644</v>
       </c>
       <c r="W13" t="n">
-        <v>884.0579043146412</v>
+        <v>956.5441012416829</v>
       </c>
       <c r="X13" t="n">
-        <v>656.0683534166238</v>
+        <v>728.5545503436651</v>
       </c>
       <c r="Y13" t="n">
-        <v>435.2757742730937</v>
+        <v>728.5545503436651</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128751</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
         <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070874</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K15" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698317</v>
+        <v>372.2013186925061</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.562310321959</v>
+        <v>964.2196729446337</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721295</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.534748721489</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>639.181732834704</v>
+        <v>1015.754398433617</v>
       </c>
       <c r="C16" t="n">
-        <v>470.2455499067971</v>
+        <v>846.8182155057103</v>
       </c>
       <c r="D16" t="n">
-        <v>470.2455499067971</v>
+        <v>696.7015760933746</v>
       </c>
       <c r="E16" t="n">
-        <v>322.332456324404</v>
+        <v>548.7884825109815</v>
       </c>
       <c r="F16" t="n">
-        <v>175.4425088264937</v>
+        <v>401.8985350130711</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156342</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861977</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693318</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107598</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.66745682198</v>
+        <v>2190.286651548252</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136707</v>
+        <v>2190.286651548252</v>
       </c>
       <c r="V16" t="n">
-        <v>1559.029497743452</v>
+        <v>1935.602163342365</v>
       </c>
       <c r="W16" t="n">
-        <v>1269.612327706491</v>
+        <v>1646.184993305404</v>
       </c>
       <c r="X16" t="n">
-        <v>1041.622776808474</v>
+        <v>1418.195442407387</v>
       </c>
       <c r="Y16" t="n">
-        <v>820.8301976649437</v>
+        <v>1197.402863263857</v>
       </c>
     </row>
     <row r="17">
@@ -5504,61 +5504,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251947</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128763</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127291</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304029</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750197</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469741</v>
+        <v>4151.260941820543</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126171</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856056</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.164119594976</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619165</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5577,37 +5577,37 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779263</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="K18" t="n">
-        <v>301.0525042748316</v>
+        <v>372.2013186925054</v>
       </c>
       <c r="L18" t="n">
-        <v>791.7848371185827</v>
+        <v>372.2013186925054</v>
       </c>
       <c r="M18" t="n">
-        <v>1383.80319137071</v>
+        <v>964.2196729446332</v>
       </c>
       <c r="N18" t="n">
-        <v>2005.899154770046</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O18" t="n">
-        <v>2552.77562977024</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P18" t="n">
         <v>2552.77562977024</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>873.8816814720478</v>
+        <v>850.994548748846</v>
       </c>
       <c r="C19" t="n">
-        <v>704.9454985441409</v>
+        <v>682.0583658209391</v>
       </c>
       <c r="D19" t="n">
-        <v>554.8288591318051</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E19" t="n">
-        <v>406.915765549412</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F19" t="n">
-        <v>260.0258180515016</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861978</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L19" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2428.375774410167</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>2208.696992124549</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U19" t="n">
-        <v>1919.620778439275</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="V19" t="n">
-        <v>1793.729446380795</v>
+        <v>1770.842313657593</v>
       </c>
       <c r="W19" t="n">
-        <v>1504.312276343835</v>
+        <v>1481.425143620633</v>
       </c>
       <c r="X19" t="n">
-        <v>1276.322725445818</v>
+        <v>1253.435592722616</v>
       </c>
       <c r="Y19" t="n">
-        <v>1055.530146302287</v>
+        <v>1032.643013579086</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F20" t="n">
         <v>793.22209597083</v>
@@ -5747,55 +5747,55 @@
         <v>92.81162322608048</v>
       </c>
       <c r="I20" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J20" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128747</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070874</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469742</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126171</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856057</v>
+        <v>3416.62987785606</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594977</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="21">
@@ -5817,31 +5817,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I21" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779264</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>570.9683475412851</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>1061.700680385036</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
         <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>2275.8149980365</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
         <v>2552.77562977024</v>
@@ -5893,37 +5893,37 @@
         <v>554.8288591318052</v>
       </c>
       <c r="E22" t="n">
-        <v>406.915765549412</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F22" t="n">
-        <v>260.0258180515016</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G22" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H22" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I22" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>431.422473086198</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P22" t="n">
         <v>2310.662640856733</v>
@@ -5935,22 +5935,22 @@
         <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.205584149098</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.52680186348</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U22" t="n">
-        <v>1736.450588178207</v>
+        <v>1919.620778439277</v>
       </c>
       <c r="V22" t="n">
-        <v>1504.312276343835</v>
+        <v>1793.729446380796</v>
       </c>
       <c r="W22" t="n">
         <v>1504.312276343835</v>
       </c>
       <c r="X22" t="n">
-        <v>1276.322725445818</v>
+        <v>1276.322725445817</v>
       </c>
       <c r="Y22" t="n">
         <v>1055.530146302287</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1577.52840832642</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121646</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998287</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,13 +6148,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406468</v>
@@ -6215,7 +6215,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>924.6979859831838</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>924.6979859831838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>774.581346570848</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>626.6682529884549</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>479.7783054905445</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1327.139029956953</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>1106.346450813423</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>184.7035232280589</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>184.7035232280589</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>554.5813165460164</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C31" t="n">
-        <v>385.6451336181095</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D31" t="n">
-        <v>235.5284942057738</v>
+        <v>483.8760050556311</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>483.8760050556311</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>483.8760050556311</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>316.6799057705111</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>174.9680746127092</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2018.188796316453</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1729.113569660651</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1474.429081454764</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W31" t="n">
-        <v>1185.011911417803</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>957.0223605197863</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y31" t="n">
-        <v>736.2297813762561</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6683,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,16 +6695,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855603</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199801</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993914</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1616.556199993914</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1388.566649095897</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.574735228845</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>916.3099000622257</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>747.3737171343189</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>597.257077721983</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>449.34398413959</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>302.4540366416796</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797745</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.84215317686</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970973</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1318.750944035995</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>1097.958364892465</v>
       </c>
     </row>
     <row r="38">
@@ -7157,25 +7157,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7196,7 +7196,7 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,19 +7257,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>808.888855385686</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121637</v>
+        <v>808.888855385686</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121637</v>
+        <v>658.7722159733503</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121637</v>
+        <v>510.8591223909572</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121637</v>
+        <v>363.9691748930468</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159257</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168582</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362658</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7476,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851665</v>
+        <v>696.7084350851667</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572595</v>
+        <v>696.7084350851667</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675715</v>
+        <v>546.5917956728309</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851784</v>
+        <v>398.6787020904378</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851784</v>
+        <v>251.7887545925274</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797742</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855603</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199801</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993914</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
         <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058936</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154062</v>
+        <v>878.3568999154064</v>
       </c>
     </row>
     <row r="44">
@@ -7640,49 +7640,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>870.3164745246299</v>
+        <v>1097.964082041489</v>
       </c>
       <c r="C46" t="n">
-        <v>701.3802915967223</v>
+        <v>929.0278991135817</v>
       </c>
       <c r="D46" t="n">
-        <v>701.3802915967223</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>553.4671980143291</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>406.5772505164188</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>239.3811512312987</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>97.66932007349682</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7825,10 +7825,10 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7837,19 +7837,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.7575184984</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.96493935487</v>
+        <v>1279.612546871728</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>140.8659483530873</v>
+        <v>140.8659483530865</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8705123199043</v>
+        <v>159.8705123199031</v>
       </c>
       <c r="L2" t="n">
-        <v>161.0590003233477</v>
+        <v>161.0590003233462</v>
       </c>
       <c r="M2" t="n">
-        <v>147.2198398551469</v>
+        <v>147.2198398551453</v>
       </c>
       <c r="N2" t="n">
-        <v>144.9415982737355</v>
+        <v>144.9415982737338</v>
       </c>
       <c r="O2" t="n">
-        <v>150.3342020460614</v>
+        <v>150.3342020460598</v>
       </c>
       <c r="P2" t="n">
-        <v>163.1562591587512</v>
+        <v>163.1562591587498</v>
       </c>
       <c r="Q2" t="n">
-        <v>171.1828958157242</v>
+        <v>171.1828958157232</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>102.9067200299274</v>
+        <v>102.9067200299269</v>
       </c>
       <c r="K3" t="n">
-        <v>96.9397078734431</v>
+        <v>96.93970787344227</v>
       </c>
       <c r="L3" t="n">
-        <v>83.55695472756568</v>
+        <v>83.55695472756459</v>
       </c>
       <c r="M3" t="n">
-        <v>77.9546329469277</v>
+        <v>77.95463294692642</v>
       </c>
       <c r="N3" t="n">
-        <v>65.46367333619986</v>
+        <v>65.46367333619854</v>
       </c>
       <c r="O3" t="n">
-        <v>82.33070931036548</v>
+        <v>82.33070931036428</v>
       </c>
       <c r="P3" t="n">
-        <v>85.60600236580167</v>
+        <v>85.60600236580069</v>
       </c>
       <c r="Q3" t="n">
-        <v>107.6487762328272</v>
+        <v>107.6487762328265</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>104.3414956660488</v>
+        <v>104.3414956660483</v>
       </c>
       <c r="L4" t="n">
-        <v>103.313314466029</v>
+        <v>103.3133144660284</v>
       </c>
       <c r="M4" t="n">
-        <v>105.6382095450336</v>
+        <v>105.638209545033</v>
       </c>
       <c r="N4" t="n">
-        <v>95.1894741805678</v>
+        <v>95.18947418056715</v>
       </c>
       <c r="O4" t="n">
-        <v>108.4411579025659</v>
+        <v>108.4411579025653</v>
       </c>
       <c r="P4" t="n">
-        <v>112.0446606720201</v>
+        <v>112.0446606720196</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>96.74492111185943</v>
+        <v>103.3431468236027</v>
       </c>
       <c r="K5" t="n">
         <v>100.6205754234462</v>
@@ -8222,7 +8222,7 @@
         <v>85.89991734304479</v>
       </c>
       <c r="M5" t="n">
-        <v>62.53817838656356</v>
+        <v>62.8159984165317</v>
       </c>
       <c r="N5" t="n">
         <v>52.18470708864717</v>
@@ -8231,7 +8231,7 @@
         <v>62.74649997574608</v>
       </c>
       <c r="P5" t="n">
-        <v>95.27822759655393</v>
+        <v>88.4021818548425</v>
       </c>
       <c r="Q5" t="n">
         <v>115.0456969704258</v>
@@ -8377,7 +8377,7 @@
         <v>77.24979101494196</v>
       </c>
       <c r="L7" t="n">
-        <v>75.24348557180983</v>
+        <v>68.64525986006655</v>
       </c>
       <c r="M7" t="n">
         <v>75.96165252469231</v>
@@ -8389,7 +8389,7 @@
         <v>82.35774950379157</v>
       </c>
       <c r="P7" t="n">
-        <v>83.84215373318403</v>
+        <v>90.44037944492732</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8453,13 +8453,13 @@
         <v>83.20324886963371</v>
       </c>
       <c r="K8" t="n">
-        <v>73.44907330703683</v>
+        <v>87.59900850511798</v>
       </c>
       <c r="L8" t="n">
-        <v>67.9954985195867</v>
+        <v>53.84556332150555</v>
       </c>
       <c r="M8" t="n">
-        <v>42.0741685709651</v>
+        <v>27.92423337288395</v>
       </c>
       <c r="N8" t="n">
         <v>37.86559935695391</v>
@@ -8471,7 +8471,7 @@
         <v>79.03680220464723</v>
       </c>
       <c r="Q8" t="n">
-        <v>97.81600865869628</v>
+        <v>111.9659438567774</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8611,16 +8611,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>68.93477643328555</v>
+        <v>83.0847116313667</v>
       </c>
       <c r="L10" t="n">
         <v>58.00490395487019</v>
       </c>
       <c r="M10" t="n">
-        <v>71.44506401355866</v>
+        <v>57.86684336893533</v>
       </c>
       <c r="N10" t="n">
-        <v>62.70393951596478</v>
+        <v>62.13222496250695</v>
       </c>
       <c r="O10" t="n">
         <v>79.51568851293169</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1.21415956748054e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.82932899750034</v>
+        <v>14.82932899750033</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>106.4758137144457</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.3238964456415</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.552381708516</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.7599916616684</v>
       </c>
       <c r="H13" t="n">
-        <v>47.22774117199724</v>
+        <v>142.3916637123401</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.35859037287285</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>71.76133495777415</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>50.2915261372913</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.29152613729266</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>163.1122511879239</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>143.6715153845049</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.2915261372931</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>50.29152613728883</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>22.65826139596981</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440906</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108361</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>127.5052245859331</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>50.2915261372895</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.29152613729309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24145,7 +24145,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>22.32071460779977</v>
+        <v>127.505224585932</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>112.9792378643595</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393055</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194262</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>4.982661438911293</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0.9259388694755444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>118.6564717779739</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.4161395899849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>144.5956654067405</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.23897475306376</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405084</v>
+        <v>38.36786441186811</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.729336756601696e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>112.2233770574213</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>149.4264805093824</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0.6960474398173631</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>77.45170586329581</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,16 +26077,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>934465.961355207</v>
+        <v>934465.9613552066</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812971.5819694512</v>
+        <v>812971.5819694505</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>871419.9700210555</v>
+        <v>871419.9700210558</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871419.9700210557</v>
+        <v>871419.970021056</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>871419.9700210557</v>
+        <v>871419.970021056</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>876221.8101769291</v>
+        <v>876221.810176929</v>
       </c>
     </row>
     <row r="16">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553036.9648736535</v>
+        <v>553036.9648736534</v>
       </c>
       <c r="C2" t="n">
-        <v>553803.7959149799</v>
+        <v>553803.79591498</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583918</v>
       </c>
       <c r="E2" t="n">
-        <v>505108.6952186168</v>
+        <v>505108.6952186164</v>
       </c>
       <c r="F2" t="n">
-        <v>541808.8458556709</v>
+        <v>541808.8458556711</v>
       </c>
       <c r="G2" t="n">
-        <v>541808.8458556707</v>
+        <v>541808.8458556711</v>
       </c>
       <c r="H2" t="n">
-        <v>541808.845855671</v>
+        <v>541808.8458556711</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907542</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907541</v>
@@ -26363,28 +26363,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113475.4222235046</v>
+        <v>113475.4222235069</v>
       </c>
       <c r="C3" t="n">
-        <v>119972.2615503552</v>
+        <v>119972.2615503531</v>
       </c>
       <c r="D3" t="n">
         <v>36249.06486821849</v>
       </c>
       <c r="E3" t="n">
-        <v>1061522.354130023</v>
+        <v>1061522.354130022</v>
       </c>
       <c r="F3" t="n">
-        <v>137966.3836929509</v>
+        <v>137966.3836929528</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.405192951002392e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744871</v>
+        <v>10818.91345744836</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>1840.955956402068</v>
       </c>
       <c r="M3" t="n">
-        <v>248678.5560431553</v>
+        <v>248678.5560431549</v>
       </c>
       <c r="N3" t="n">
-        <v>36274.63029370918</v>
+        <v>36274.63029370957</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392696.7017547778</v>
+        <v>392696.7017547773</v>
       </c>
       <c r="C4" t="n">
-        <v>362927.8785931707</v>
+        <v>362927.8785931708</v>
       </c>
       <c r="D4" t="n">
         <v>353530.8414321567</v>
       </c>
       <c r="E4" t="n">
-        <v>9253.944703519493</v>
+        <v>9253.944703519492</v>
       </c>
       <c r="F4" t="n">
         <v>9330.667735531239</v>
@@ -26436,28 +26436,28 @@
         <v>9330.667735531239</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756606</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756593</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="K4" t="n">
         <v>9337.200356756603</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756593</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756603</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756628</v>
+        <v>9337.200356756606</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756526</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36194.77603900362</v>
+        <v>36194.77603900368</v>
       </c>
       <c r="C5" t="n">
         <v>39431.8184029668</v>
@@ -26476,13 +26476,13 @@
         <v>40739.27482484731</v>
       </c>
       <c r="E5" t="n">
-        <v>88502.73299676878</v>
+        <v>88502.73299676865</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138385</v>
       </c>
       <c r="H5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10670.06485636748</v>
+        <v>10665.74548679246</v>
       </c>
       <c r="C6" t="n">
-        <v>31471.83736848713</v>
+        <v>31470.35811388417</v>
       </c>
       <c r="D6" t="n">
-        <v>123684.0135331689</v>
+        <v>123684.0135331692</v>
       </c>
       <c r="E6" t="n">
-        <v>-654170.3366116948</v>
+        <v>-654352.1680910998</v>
       </c>
       <c r="F6" t="n">
-        <v>294369.6659133504</v>
+        <v>294323.760917783</v>
       </c>
       <c r="G6" t="n">
-        <v>432336.0496063012</v>
+        <v>432290.1446107352</v>
       </c>
       <c r="H6" t="n">
-        <v>432336.049606301</v>
+        <v>432290.1446107359</v>
       </c>
       <c r="I6" t="n">
-        <v>423545.3111526415</v>
+        <v>423510.5732272062</v>
       </c>
       <c r="J6" t="n">
-        <v>434364.2246100903</v>
+        <v>434329.4866846548</v>
       </c>
       <c r="K6" t="n">
-        <v>432594.5504696377</v>
+        <v>432559.8125442021</v>
       </c>
       <c r="L6" t="n">
-        <v>432523.2686536885</v>
+        <v>432488.5307282527</v>
       </c>
       <c r="M6" t="n">
-        <v>185685.6685669352</v>
+        <v>185650.9306414996</v>
       </c>
       <c r="N6" t="n">
-        <v>398089.5943163812</v>
+        <v>398054.8563909451</v>
       </c>
       <c r="O6" t="n">
-        <v>434364.2246100905</v>
+        <v>434329.4866846549</v>
       </c>
       <c r="P6" t="n">
-        <v>434364.2246100907</v>
+        <v>434329.486684655</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.7603687616342</v>
+        <v>117.7603687616365</v>
       </c>
       <c r="C3" t="n">
         <v>247.0713221041627</v>
@@ -26744,13 +26744,13 @@
         <v>286.759576367155</v>
       </c>
       <c r="E3" t="n">
-        <v>1237.184086401909</v>
+        <v>1237.184086401908</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
         <v>1358.041048716386</v>
@@ -26796,16 +26796,16 @@
         <v>14.14993519808115</v>
       </c>
       <c r="E4" t="n">
-        <v>1012.041445940907</v>
+        <v>1012.041445940906</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.7603687616342</v>
+        <v>117.7603687616365</v>
       </c>
       <c r="C3" t="n">
-        <v>129.3109533425285</v>
+        <v>129.3109533425261</v>
       </c>
       <c r="D3" t="n">
         <v>39.68825426299239</v>
       </c>
       <c r="E3" t="n">
-        <v>950.4245100347543</v>
+        <v>950.4245100347528</v>
       </c>
       <c r="F3" t="n">
-        <v>120.856962314476</v>
+        <v>120.8569623144779</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>7.273889456369716</v>
       </c>
       <c r="E4" t="n">
-        <v>997.8915107428262</v>
+        <v>997.8915107428246</v>
       </c>
       <c r="F4" t="n">
-        <v>148.1038443850989</v>
+        <v>148.1038443851007</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>7.273889456369716</v>
       </c>
       <c r="M4" t="n">
-        <v>997.8915107428262</v>
+        <v>997.8915107428246</v>
       </c>
       <c r="N4" t="n">
-        <v>148.1038443850991</v>
+        <v>148.1038443851007</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>7.273889456369716</v>
       </c>
       <c r="M4" t="n">
-        <v>997.8915107428262</v>
+        <v>997.8915107428246</v>
       </c>
       <c r="N4" t="n">
-        <v>148.1038443850989</v>
+        <v>148.1038443851007</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>334.6265071345407</v>
+        <v>334.6265071345406</v>
       </c>
       <c r="I2" t="n">
-        <v>192.2248076942937</v>
+        <v>192.2248076942934</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>120.1313701452783</v>
+        <v>120.1313701452777</v>
       </c>
       <c r="S2" t="n">
-        <v>198.2322729906444</v>
+        <v>198.2322729906442</v>
       </c>
       <c r="T2" t="n">
         <v>221.0235037781854</v>
@@ -27473,10 +27473,10 @@
         <v>137.0902212756856</v>
       </c>
       <c r="H3" t="n">
-        <v>109.7891392175048</v>
+        <v>109.7891392175047</v>
       </c>
       <c r="I3" t="n">
-        <v>80.6756998818035</v>
+        <v>80.67569988180331</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.43127018858942</v>
+        <v>84.4312701885891</v>
       </c>
       <c r="S3" t="n">
-        <v>166.978311087748</v>
+        <v>166.9783110877479</v>
       </c>
       <c r="T3" t="n">
         <v>199.1437685165957</v>
@@ -27555,10 +27555,10 @@
         <v>160.3391456115563</v>
       </c>
       <c r="I4" t="n">
-        <v>149.0643880442503</v>
+        <v>149.0643880442502</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3456983484887</v>
+        <v>78.3456983484884</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.38022756868763</v>
+        <v>68.38022756868727</v>
       </c>
       <c r="R4" t="n">
-        <v>167.7451490182344</v>
+        <v>167.7451490182342</v>
       </c>
       <c r="S4" t="n">
-        <v>220.3158336612993</v>
+        <v>220.3158336612992</v>
       </c>
       <c r="T4" t="n">
         <v>227.0382554394623</v>
@@ -27634,7 +27634,7 @@
         <v>323.2462436294858</v>
       </c>
       <c r="I5" t="n">
-        <v>172.1835593375587</v>
+        <v>165.3075135958473</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80.6007347637574</v>
+        <v>87.47678050546884</v>
       </c>
       <c r="S5" t="n">
         <v>186.3863499784117</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>151.5886593661015</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.28611260237955</v>
+        <v>67.16215834409098</v>
       </c>
       <c r="S6" t="n">
         <v>161.8119725273177</v>
       </c>
       <c r="T6" t="n">
-        <v>191.1466212076977</v>
+        <v>198.0226669494091</v>
       </c>
       <c r="U6" t="n">
-        <v>219.0303734163241</v>
+        <v>225.9064191580356</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.6262746880049</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>173.7755590926379</v>
       </c>
       <c r="C7" t="n">
         <v>160.3707753569164</v>
       </c>
       <c r="D7" t="n">
-        <v>142.5590519289129</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>158.2659306546876</v>
       </c>
       <c r="I7" t="n">
-        <v>135.1758728983244</v>
+        <v>142.0519186400358</v>
       </c>
       <c r="J7" t="n">
         <v>54.98356598145195</v>
@@ -27901,7 +27901,7 @@
         <v>63.30446419443213</v>
       </c>
       <c r="S8" t="n">
-        <v>168.6006515882987</v>
+        <v>182.7505867863798</v>
       </c>
       <c r="T8" t="n">
         <v>218.0494574212279</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>335.0910335193319</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,10 +27935,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>134.9818026421689</v>
       </c>
       <c r="E9" t="n">
-        <v>145.1818175329311</v>
+        <v>143.4951452573198</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,7 +27950,7 @@
         <v>92.12848463124101</v>
       </c>
       <c r="I9" t="n">
-        <v>68.16019252611162</v>
+        <v>54.01025732803046</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>191.6230500053963</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>191.5327605792232</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>154.783558176158</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>134.4655378201312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>132.284027448488</v>
+        <v>133.9706997240993</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>131.2711128248501</v>
       </c>
       <c r="G10" t="n">
         <v>167.4738719256655</v>
@@ -28032,7 +28032,7 @@
         <v>139.8996441301673</v>
       </c>
       <c r="J10" t="n">
-        <v>56.79968461819139</v>
+        <v>42.64974942011024</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4734085176347099</v>
+        <v>0.4734085176347194</v>
       </c>
       <c r="H2" t="n">
-        <v>4.848294981226474</v>
+        <v>4.848294981226571</v>
       </c>
       <c r="I2" t="n">
-        <v>18.25108187611217</v>
+        <v>18.25108187611254</v>
       </c>
       <c r="J2" t="n">
-        <v>40.179956173599</v>
+        <v>40.1799561735998</v>
       </c>
       <c r="K2" t="n">
-        <v>60.21933872507628</v>
+        <v>60.21933872507748</v>
       </c>
       <c r="L2" t="n">
-        <v>74.70741464663953</v>
+        <v>74.70741464664104</v>
       </c>
       <c r="M2" t="n">
-        <v>83.1263933721258</v>
+        <v>83.12639337212748</v>
       </c>
       <c r="N2" t="n">
-        <v>84.47146532285544</v>
+        <v>84.47146532285713</v>
       </c>
       <c r="O2" t="n">
-        <v>79.76400937562528</v>
+        <v>79.76400937562688</v>
       </c>
       <c r="P2" t="n">
-        <v>68.07673659651837</v>
+        <v>68.07673659651974</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.12279405872531</v>
+        <v>51.12279405872633</v>
       </c>
       <c r="R2" t="n">
-        <v>29.73774779587137</v>
+        <v>29.73774779587196</v>
       </c>
       <c r="S2" t="n">
-        <v>10.78779659560096</v>
+        <v>10.78779659560118</v>
       </c>
       <c r="T2" t="n">
-        <v>2.072345785945943</v>
+        <v>2.072345785945985</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03787268141077678</v>
+        <v>0.03787268141077754</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2532958875250245</v>
+        <v>0.2532958875250295</v>
       </c>
       <c r="H3" t="n">
-        <v>2.446305018991684</v>
+        <v>2.446305018991733</v>
       </c>
       <c r="I3" t="n">
-        <v>8.720932969611589</v>
+        <v>8.720932969611763</v>
       </c>
       <c r="J3" t="n">
-        <v>23.93090663673927</v>
+        <v>23.93090663673975</v>
       </c>
       <c r="K3" t="n">
-        <v>40.9017311009159</v>
+        <v>40.90173110091672</v>
       </c>
       <c r="L3" t="n">
-        <v>54.99742505230849</v>
+        <v>54.99742505230959</v>
       </c>
       <c r="M3" t="n">
-        <v>64.17940097509062</v>
+        <v>64.17940097509189</v>
       </c>
       <c r="N3" t="n">
-        <v>65.87803874713344</v>
+        <v>65.87803874713477</v>
       </c>
       <c r="O3" t="n">
-        <v>60.26553513407895</v>
+        <v>60.26553513408016</v>
       </c>
       <c r="P3" t="n">
-        <v>48.36840504852857</v>
+        <v>48.36840504852955</v>
       </c>
       <c r="Q3" t="n">
-        <v>32.33299785319435</v>
+        <v>32.332997853195</v>
       </c>
       <c r="R3" t="n">
-        <v>15.72656396405372</v>
+        <v>15.72656396405403</v>
       </c>
       <c r="S3" t="n">
-        <v>4.704860016089815</v>
+        <v>4.704860016089909</v>
       </c>
       <c r="T3" t="n">
-        <v>1.020960178225866</v>
+        <v>1.020960178225886</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01666420312664635</v>
+        <v>0.01666420312664669</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2123547633406518</v>
+        <v>0.212354763340656</v>
       </c>
       <c r="H4" t="n">
-        <v>1.888026895883251</v>
+        <v>1.888026895883288</v>
       </c>
       <c r="I4" t="n">
-        <v>6.386086883007966</v>
+        <v>6.386086883008094</v>
       </c>
       <c r="J4" t="n">
-        <v>15.01348176818408</v>
+        <v>15.01348176818438</v>
       </c>
       <c r="K4" t="n">
-        <v>24.67176250448663</v>
+        <v>24.67176250448712</v>
       </c>
       <c r="L4" t="n">
-        <v>31.57136181520927</v>
+        <v>31.5713618152099</v>
       </c>
       <c r="M4" t="n">
-        <v>33.28757440257144</v>
+        <v>33.2875744025721</v>
       </c>
       <c r="N4" t="n">
-        <v>32.49607028466539</v>
+        <v>32.49607028466605</v>
       </c>
       <c r="O4" t="n">
-        <v>30.01538054927686</v>
+        <v>30.01538054927746</v>
       </c>
       <c r="P4" t="n">
-        <v>25.68334337712754</v>
+        <v>25.68334337712806</v>
       </c>
       <c r="Q4" t="n">
-        <v>17.78181568300676</v>
+        <v>17.78181568300711</v>
       </c>
       <c r="R4" t="n">
-        <v>9.548242358935122</v>
+        <v>9.548242358935312</v>
       </c>
       <c r="S4" t="n">
-        <v>3.700764375672994</v>
+        <v>3.700764375673068</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9073339888191482</v>
+        <v>0.9073339888191664</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01158298709130829</v>
+        <v>0.01158298709130852</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.973604367444858</v>
+        <v>4.973604367444851</v>
       </c>
       <c r="H11" t="n">
-        <v>50.93592572809467</v>
+        <v>50.9359257280946</v>
       </c>
       <c r="I11" t="n">
-        <v>191.7448823759181</v>
+        <v>191.7448823759178</v>
       </c>
       <c r="J11" t="n">
-        <v>422.1284536814234</v>
+        <v>422.1284536814229</v>
       </c>
       <c r="K11" t="n">
-        <v>632.6611265553644</v>
+        <v>632.6611265553636</v>
       </c>
       <c r="L11" t="n">
-        <v>784.872071215555</v>
+        <v>784.8720712155541</v>
       </c>
       <c r="M11" t="n">
-        <v>873.3214078851025</v>
+        <v>873.3214078851014</v>
       </c>
       <c r="N11" t="n">
-        <v>887.4526612941053</v>
+        <v>887.4526612941041</v>
       </c>
       <c r="O11" t="n">
-        <v>837.9963828653255</v>
+        <v>837.9963828653243</v>
       </c>
       <c r="P11" t="n">
-        <v>715.2105250440304</v>
+        <v>715.2105250440295</v>
       </c>
       <c r="Q11" t="n">
-        <v>537.0933186349113</v>
+        <v>537.0933186349106</v>
       </c>
       <c r="R11" t="n">
-        <v>312.4231753465083</v>
+        <v>312.4231753465079</v>
       </c>
       <c r="S11" t="n">
-        <v>113.3360095231498</v>
+        <v>113.3360095231497</v>
       </c>
       <c r="T11" t="n">
-        <v>21.77195311848988</v>
+        <v>21.77195311848985</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3978883493955885</v>
+        <v>0.397888349395588</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.661112940562598</v>
+        <v>2.661112940562594</v>
       </c>
       <c r="H12" t="n">
-        <v>25.70074866280193</v>
+        <v>25.7007486628019</v>
       </c>
       <c r="I12" t="n">
-        <v>91.62165168165085</v>
+        <v>91.62165168165073</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>251.4168151432406</v>
       </c>
       <c r="K12" t="n">
-        <v>242.6767276438728</v>
+        <v>429.7113821609344</v>
       </c>
       <c r="L12" t="n">
-        <v>577.7999829936465</v>
+        <v>577.7999829936457</v>
       </c>
       <c r="M12" t="n">
-        <v>674.2653270890405</v>
+        <v>162.9445256282115</v>
       </c>
       <c r="N12" t="n">
-        <v>692.1111239579889</v>
+        <v>692.1111239579881</v>
       </c>
       <c r="O12" t="n">
-        <v>633.1464635381545</v>
+        <v>633.1464635381536</v>
       </c>
       <c r="P12" t="n">
-        <v>508.1558561676069</v>
+        <v>508.1558561676063</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>339.6887325532182</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.42900571615172</v>
+        <v>49.42900571615166</v>
       </c>
       <c r="T12" t="n">
-        <v>10.72615259814485</v>
+        <v>10.72615259814484</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1750732197738552</v>
+        <v>0.175073219773855</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.230987696790328</v>
+        <v>2.230987696790325</v>
       </c>
       <c r="H13" t="n">
-        <v>19.83550879509948</v>
+        <v>19.83550879509945</v>
       </c>
       <c r="I13" t="n">
-        <v>67.09188455438552</v>
+        <v>67.09188455438543</v>
       </c>
       <c r="J13" t="n">
-        <v>157.7308301630762</v>
+        <v>157.730830163076</v>
       </c>
       <c r="K13" t="n">
-        <v>259.2002069543672</v>
+        <v>259.2002069543668</v>
       </c>
       <c r="L13" t="n">
-        <v>331.6870253937184</v>
+        <v>331.687025393718</v>
       </c>
       <c r="M13" t="n">
-        <v>349.7174623250511</v>
+        <v>349.7174623250506</v>
       </c>
       <c r="N13" t="n">
-        <v>341.4019627279238</v>
+        <v>341.4019627279234</v>
       </c>
       <c r="O13" t="n">
-        <v>315.3399700881458</v>
+        <v>315.3399700881454</v>
       </c>
       <c r="P13" t="n">
-        <v>269.8278210736228</v>
+        <v>269.8278210736225</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.8147970466883</v>
+        <v>186.8147970466881</v>
       </c>
       <c r="R13" t="n">
-        <v>100.3133195302269</v>
+        <v>100.3133195302268</v>
       </c>
       <c r="S13" t="n">
-        <v>38.88003104315506</v>
+        <v>38.88003104315501</v>
       </c>
       <c r="T13" t="n">
-        <v>9.532401977195036</v>
+        <v>9.532401977195024</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1216902380067453</v>
+        <v>0.1216902380067452</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -31999,25 +31999,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
         <v>342.9428985987162</v>
@@ -32029,7 +32029,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
         <v>28.2113810308819</v>
@@ -32081,19 +32081,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>420.7661933823243</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059974</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
         <v>11.77395965821092</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
         <v>364.0885788640618</v>
@@ -32166,13 +32166,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377423</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H17" t="n">
-        <v>55.9117101112228</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704058</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874063</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830428</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L17" t="n">
-        <v>861.543971036426</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293305</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229604</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086948</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687521</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148604</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987161</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665718</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901938</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088189</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735817</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>199.0463877591117</v>
+        <v>420.0532525768083</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745723</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504299</v>
+        <v>740.1323715504303</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927635</v>
+        <v>759.721473092764</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426202</v>
+        <v>694.9967242426206</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982455</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862158</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013753</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548566</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284922</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900884</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640617</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M19" t="n">
-        <v>383.880357426502</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465961</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R19" t="n">
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551968</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
         <v>0.1335778080704643</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32543,7 +32543,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,16 +32555,16 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>422.3544583169088</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,10 +32576,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32625,7 +32625,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32634,16 +32634,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,7 +33032,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,16 +33260,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>216.857296338707</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>397.4049812900382</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>321.1112257697157</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>316.3837382263852</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,22 +33977,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="K5" t="n">
         <v>6.876045741711437</v>
@@ -34942,7 +34942,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,7 +34951,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
@@ -35109,7 +35109,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="L8" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>14.14993519808115</v>
@@ -35191,7 +35191,7 @@
         <v>13.57822064462333</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35331,16 +35331,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>13.57822064462333</v>
-      </c>
-      <c r="N10" t="n">
-        <v>14.14993519808115</v>
       </c>
       <c r="O10" t="n">
         <v>14.14993519808115</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>241.0825491547371</v>
+        <v>241.0825491547366</v>
       </c>
       <c r="K11" t="n">
-        <v>412.5712755103838</v>
+        <v>412.571275510383</v>
       </c>
       <c r="L11" t="n">
-        <v>549.1056562455678</v>
+        <v>549.1056562455669</v>
       </c>
       <c r="M11" t="n">
-        <v>642.9751746578298</v>
+        <v>642.9751746578287</v>
       </c>
       <c r="N11" t="n">
-        <v>658.0395976975144</v>
+        <v>658.0395976975133</v>
       </c>
       <c r="O11" t="n">
-        <v>607.8981714436387</v>
+        <v>607.8981714436376</v>
       </c>
       <c r="P11" t="n">
-        <v>483.9775292887609</v>
+        <v>483.97752928876</v>
       </c>
       <c r="Q11" t="n">
-        <v>314.7876287604618</v>
+        <v>314.7876287604611</v>
       </c>
       <c r="R11" t="n">
-        <v>96.83763753237622</v>
+        <v>96.83763753237582</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>124.5791884765739</v>
       </c>
       <c r="K12" t="n">
-        <v>104.8352886695138</v>
+        <v>291.8699431865754</v>
       </c>
       <c r="L12" t="n">
-        <v>439.2456032137723</v>
+        <v>439.2456032137715</v>
       </c>
       <c r="M12" t="n">
-        <v>532.1312931670222</v>
+        <v>20.81049170619322</v>
       </c>
       <c r="N12" t="n">
-        <v>560.7694118746556</v>
+        <v>560.7694118746548</v>
       </c>
       <c r="O12" t="n">
-        <v>490.5502190937101</v>
+        <v>490.5502190937092</v>
       </c>
       <c r="P12" t="n">
-        <v>374.1814487532767</v>
+        <v>374.181448753276</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>199.7069584671967</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>64.3716500464034</v>
+        <v>64.3716500464032</v>
       </c>
       <c r="K13" t="n">
-        <v>236.9307151284843</v>
+        <v>236.930715128484</v>
       </c>
       <c r="L13" t="n">
-        <v>359.2770506540346</v>
+        <v>359.2770506540342</v>
       </c>
       <c r="M13" t="n">
-        <v>389.3013392868917</v>
+        <v>389.3013392868912</v>
       </c>
       <c r="N13" t="n">
-        <v>385.5341351071523</v>
+        <v>385.534135107152</v>
       </c>
       <c r="O13" t="n">
-        <v>339.9250980021855</v>
+        <v>339.9250980021851</v>
       </c>
       <c r="P13" t="n">
-        <v>267.1063803385163</v>
+        <v>267.106380338516</v>
       </c>
       <c r="Q13" t="n">
-        <v>100.6527537949939</v>
+        <v>100.6527537949937</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>282.2118136024501</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916671</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
         <v>370.7297545606359</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.31906616072</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380622</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020578</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870081</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404109</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R17" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.139375506915</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20494878475274</v>
+        <v>282.2118136024494</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946981</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284115</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094302</v>
+        <v>628.3797610094307</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981758</v>
+        <v>552.4004797981762</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>423.8217357839153</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066044</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243779</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883426</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209158</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606358</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>279.7582138724644</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36285,19 +36285,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36613,10 +36613,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,13 +36847,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>90.01966967204031</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>187.1368183553855</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>182.409330812055</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902925</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
